--- a/data/genealogy.xlsx
+++ b/data/genealogy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/gpuig-santana_nps_gov/Documents/Desktop/KALA DATA/Monk Seal Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/199cdc1d2f2b8cc5/ESM 244/esm_244_shiny_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{E9418238-D1B6-4A6B-865E-D3AD22E6DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51DFF335-984C-4027-AF9D-383A6D605D0D}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{E9418238-D1B6-4A6B-865E-D3AD22E6DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272511D3-F4D9-441E-9FC1-E6B2E5457C78}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1325,10 +1325,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1344,37 +1343,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1392,8 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1408,21 +1387,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1432,7 +1411,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1451,7 +1429,7 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1460,19 +1438,16 @@
     <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11350,46 +11325,46 @@
   <dimension ref="A1:DK150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="24" width="9.140625" style="7"/>
-    <col min="25" max="25" width="12" style="7" customWidth="1"/>
-    <col min="26" max="30" width="9.140625" style="7"/>
-    <col min="31" max="31" width="10.85546875" style="7" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" style="7" customWidth="1"/>
-    <col min="33" max="45" width="9.140625" style="7"/>
-    <col min="46" max="46" width="14" style="7" customWidth="1"/>
-    <col min="47" max="54" width="9.140625" style="7"/>
-    <col min="55" max="55" width="17.28515625" style="7" customWidth="1"/>
-    <col min="56" max="59" width="9.140625" style="7"/>
-    <col min="60" max="60" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.5703125" customWidth="1"/>
-    <col min="72" max="72" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.28515625" customWidth="1"/>
-    <col min="78" max="78" width="9.140625" style="17"/>
-    <col min="79" max="79" width="15.5703125" style="17" customWidth="1"/>
-    <col min="80" max="89" width="9.140625" style="17"/>
-    <col min="103" max="103" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.85546875" customWidth="1"/>
-    <col min="110" max="110" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="24" width="9.109375" style="6"/>
+    <col min="25" max="25" width="12" style="6" customWidth="1"/>
+    <col min="26" max="30" width="9.109375" style="6"/>
+    <col min="31" max="31" width="10.88671875" style="6" customWidth="1"/>
+    <col min="32" max="32" width="15.88671875" style="6" customWidth="1"/>
+    <col min="33" max="45" width="9.109375" style="6"/>
+    <col min="46" max="46" width="14" style="6" customWidth="1"/>
+    <col min="47" max="54" width="9.109375" style="6"/>
+    <col min="55" max="55" width="17.33203125" style="6" customWidth="1"/>
+    <col min="56" max="59" width="9.109375" style="6"/>
+    <col min="60" max="60" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.5546875" customWidth="1"/>
+    <col min="72" max="72" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.33203125" customWidth="1"/>
+    <col min="78" max="78" width="9.109375"/>
+    <col min="79" max="79" width="15.5546875" customWidth="1"/>
+    <col min="80" max="89" width="9.109375"/>
+    <col min="103" max="103" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.88671875" customWidth="1"/>
+    <col min="110" max="110" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>226</v>
       </c>
@@ -11412,424 +11387,417 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="21">
         <v>1997</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AL2" s="27" t="s">
+      <c r="AL2" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="21">
         <v>1998</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H3">
         <v>1997</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="21">
         <v>1999</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H4">
         <v>1998</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AL4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="21">
         <v>2000</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H5">
         <v>1999</v>
       </c>
-      <c r="AP5" s="8" t="s">
+      <c r="AP5" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="21">
         <v>2001</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H6">
         <v>2000</v>
       </c>
-      <c r="AS6" s="7" t="s">
+      <c r="AS6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="DD6" s="28" t="s">
+      <c r="DD6" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="DE6" s="44"/>
     </row>
-    <row r="7" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="21">
         <v>2001</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H7">
         <v>2001</v>
       </c>
-      <c r="AU7" s="8" t="s">
+      <c r="AU7" s="7" t="s">
         <v>98</v>
       </c>
       <c r="BN7" t="s">
         <v>120</v>
       </c>
-      <c r="BP7" s="28" t="s">
+      <c r="BP7" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="21">
         <v>2002</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H8">
         <v>2002</v>
       </c>
-      <c r="AW8" s="8" t="s">
+      <c r="AW8" s="7" t="s">
         <v>99</v>
       </c>
       <c r="BO8" t="s">
         <v>121</v>
       </c>
-      <c r="CI8" s="30"/>
     </row>
-    <row r="9" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="21">
         <v>2002</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H9">
         <v>2003</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AG9" s="7" t="s">
+      <c r="AG9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AX9" s="7" t="s">
+      <c r="AX9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="BV9" s="28" t="s">
+      <c r="BV9" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="CE9" s="17" t="s">
+      <c r="CE9" t="s">
         <v>131</v>
       </c>
-      <c r="CI9" s="29" t="s">
+      <c r="CI9" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="21">
         <v>2003</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H10">
         <v>2004</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AH10" s="8" t="s">
+      <c r="AH10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AY10" s="8" t="s">
+      <c r="AY10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AZ10" s="32"/>
       <c r="BP10" t="s">
         <v>122</v>
       </c>
-      <c r="BS10" s="6" t="s">
+      <c r="BS10" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="21">
         <v>2003</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H11">
         <v>2005</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="AK11" s="7" t="s">
+      <c r="L11" s="20"/>
+      <c r="AK11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="BQ11" s="6" t="s">
+      <c r="BQ11" s="5" t="s">
         <v>154</v>
       </c>
       <c r="BT11" t="s">
         <v>125</v>
       </c>
-      <c r="CF11" s="19"/>
-      <c r="CG11" s="19"/>
-      <c r="CH11" s="20"/>
-      <c r="CI11" s="19"/>
-      <c r="CJ11" s="19"/>
+      <c r="CF11" s="10"/>
+      <c r="CG11" s="10"/>
+      <c r="CH11" s="10"/>
+      <c r="CI11" s="10"/>
+      <c r="CJ11" s="10"/>
     </row>
-    <row r="12" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="21">
         <v>2003</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H12">
         <v>2006</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="R12" s="35"/>
-      <c r="AL12" s="8" t="s">
+      <c r="R12" s="20"/>
+      <c r="AL12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BC12" s="8" t="s">
+      <c r="BC12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BD12" s="32"/>
       <c r="BU12" t="s">
         <v>126</v>
       </c>
-      <c r="CF12" s="17" t="s">
+      <c r="CF12" t="s">
         <v>132</v>
       </c>
-      <c r="CG12" s="15"/>
-      <c r="CH12" s="21"/>
-      <c r="CI12" s="15"/>
-      <c r="CJ12" s="15"/>
+      <c r="CG12" s="10"/>
+      <c r="CH12" s="10"/>
+      <c r="CI12" s="10"/>
+      <c r="CJ12" s="10"/>
     </row>
-    <row r="13" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="21">
         <v>2003</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H13">
         <v>2007</v>
       </c>
-      <c r="S13" s="33" t="s">
+      <c r="S13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AM13" s="7" t="s">
+      <c r="AM13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="BF13" s="8" t="s">
+      <c r="BF13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BG13" s="32"/>
       <c r="BR13" t="s">
         <v>123</v>
       </c>
       <c r="BV13" t="s">
         <v>127</v>
       </c>
-      <c r="CF13" s="15"/>
-      <c r="CG13" s="16" t="s">
+      <c r="CF13" s="10"/>
+      <c r="CG13" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="CH13" s="21"/>
-      <c r="CI13" s="15"/>
-      <c r="CJ13" s="15"/>
-      <c r="CX13" s="6" t="s">
+      <c r="CH13" s="10"/>
+      <c r="CI13" s="10"/>
+      <c r="CJ13" s="10"/>
+      <c r="CX13" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="DK13" s="28" t="s">
+      <c r="DK13" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="21">
         <v>2004</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14">
         <v>2008</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF14" s="7" t="s">
+      <c r="AF14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AN14" s="7" t="s">
+      <c r="AN14" s="6" t="s">
         <v>92</v>
       </c>
       <c r="BH14" t="s">
@@ -11838,373 +11806,356 @@
       <c r="BW14" t="s">
         <v>128</v>
       </c>
-      <c r="CF14" s="15"/>
-      <c r="CG14" s="15"/>
-      <c r="CH14" s="21" t="s">
+      <c r="CF14" s="10"/>
+      <c r="CG14" s="10"/>
+      <c r="CH14" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="CI14" s="15"/>
-      <c r="CJ14" s="15"/>
+      <c r="CI14" s="10"/>
+      <c r="CJ14" s="10"/>
       <c r="CY14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="21">
         <v>2004</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H15">
         <v>2009</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AO15" s="7" t="s">
+      <c r="AO15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BI15" s="6" t="s">
+      <c r="BI15" s="5" t="s">
         <v>107</v>
       </c>
       <c r="BX15" t="s">
         <v>129</v>
       </c>
-      <c r="CF15" s="15"/>
-      <c r="CG15" s="22"/>
-      <c r="CH15" s="21"/>
-      <c r="CI15" s="16" t="s">
+      <c r="CF15" s="10"/>
+      <c r="CG15" s="12"/>
+      <c r="CH15" s="10"/>
+      <c r="CI15" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="CJ15" s="15"/>
-      <c r="CP15" s="6" t="s">
+      <c r="CJ15" s="10"/>
+      <c r="CP15" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="CS15" s="28" t="s">
+      <c r="CS15" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="21">
         <v>2004</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H16">
         <v>2010</v>
       </c>
-      <c r="AG16" s="8" t="s">
+      <c r="AG16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AP16" s="7" t="s">
+      <c r="AP16" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AW16" s="7" t="s">
+      <c r="AW16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BO16" s="4" t="s">
+      <c r="BO16" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="CJ16" s="18" t="s">
+      <c r="CJ16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="CQ16" s="6" t="s">
+      <c r="CQ16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="DA16" s="6" t="s">
+      <c r="DA16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="DB16" s="25"/>
-      <c r="DC16" s="25"/>
     </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="21">
         <v>2004</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H17">
         <v>2011</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V17" s="33" t="s">
+      <c r="V17" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AH17" s="7" t="s">
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AH17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AQ17" s="7" t="s">
+      <c r="AQ17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BK17" s="6" t="s">
+      <c r="BK17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BL17" s="25"/>
-      <c r="BM17" s="25"/>
-      <c r="CK17" s="17" t="s">
+      <c r="CK17" t="s">
         <v>137</v>
       </c>
       <c r="CR17" t="s">
         <v>141</v>
       </c>
-      <c r="DD17" s="6" t="s">
+      <c r="DD17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="DE17" s="25"/>
     </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="21">
         <v>2004</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H18">
         <v>2012</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AA18" s="33" t="s">
+      <c r="AA18" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AI18" s="7" t="s">
+      <c r="AI18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="CL18" s="6" t="s">
+      <c r="CL18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="CM18" s="25"/>
-      <c r="CN18" s="25"/>
-      <c r="CP18" s="25"/>
-      <c r="CS18" s="6" t="s">
+      <c r="CS18" s="5" t="s">
         <v>142</v>
       </c>
       <c r="DF18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="21">
         <v>2005</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H19">
         <v>2013</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AB19" s="32" t="s">
+      <c r="AB19" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AJ19" s="8" t="s">
+      <c r="AJ19" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="AS19" s="8" t="s">
+      <c r="AS19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AX19" s="7" t="s">
+      <c r="AX19" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="BD19" s="7" t="s">
+      <c r="BD19" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="BL19" s="7" t="s">
+      <c r="BL19" s="6" t="s">
         <v>166</v>
       </c>
       <c r="BP19" s="1"/>
-      <c r="BQ19" s="3"/>
+      <c r="BQ19" s="2"/>
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
       <c r="BT19" s="1"/>
-      <c r="BZ19" s="24" t="s">
+      <c r="BZ19" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="CA19" s="25"/>
-      <c r="CB19" s="25"/>
-      <c r="CC19" s="25"/>
-      <c r="CD19" s="25"/>
-      <c r="CE19" s="25"/>
-      <c r="CM19" s="6" t="s">
+      <c r="CM19" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="CO19" s="25"/>
       <c r="CT19" t="s">
         <v>176</v>
       </c>
-      <c r="CX19" s="12"/>
-      <c r="CY19" s="12"/>
-      <c r="CZ19" s="12"/>
-      <c r="DA19" s="14"/>
-      <c r="DB19" s="14"/>
-      <c r="DC19" s="14"/>
-      <c r="DD19" s="12"/>
-      <c r="DE19" s="12"/>
-      <c r="DF19" s="12"/>
-      <c r="DG19" s="12"/>
-      <c r="DI19" s="6" t="s">
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
+      <c r="CZ19" s="1"/>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1"/>
+      <c r="DC19" s="1"/>
+      <c r="DD19" s="1"/>
+      <c r="DE19" s="1"/>
+      <c r="DF19" s="1"/>
+      <c r="DG19" s="1"/>
+      <c r="DI19" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="21">
         <v>2005</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H20">
         <v>2014</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AC20" s="32" t="s">
+      <c r="AC20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AT20" s="8" t="s">
+      <c r="AT20" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="CT20" s="12"/>
+      <c r="CT20" s="1"/>
       <c r="CU20" t="s">
         <v>193</v>
       </c>
-      <c r="CW20" s="12"/>
-      <c r="CX20" s="12"/>
-      <c r="CY20" s="32" t="s">
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="CZ20" s="32"/>
-      <c r="DA20" s="14"/>
-      <c r="DB20" s="14"/>
-      <c r="DC20" s="14"/>
-      <c r="DD20" s="12"/>
-      <c r="DE20" s="12"/>
-      <c r="DF20" s="12"/>
-      <c r="DG20" s="12"/>
+      <c r="CZ20" s="6"/>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
+      <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
+      <c r="DE20" s="1"/>
+      <c r="DF20" s="1"/>
+      <c r="DG20" s="1"/>
     </row>
-    <row r="21" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="21">
         <v>2005</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H21">
         <v>2015</v>
       </c>
-      <c r="M21" s="41" t="s">
+      <c r="M21" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="AD21" s="5" t="s">
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="AD21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AE21" s="32"/>
-      <c r="BG21" s="4" t="s">
+      <c r="BG21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="BV21" s="12"/>
-      <c r="BW21" s="12"/>
-      <c r="BX21" s="14"/>
-      <c r="BY21" s="14"/>
-      <c r="BZ21" s="12"/>
-      <c r="CA21" s="5" t="s">
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="CD21" s="12"/>
-      <c r="CE21" s="12"/>
-      <c r="CF21" s="32" t="s">
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="CM21" s="4" t="s">
+      <c r="CM21" s="3" t="s">
         <v>194</v>
       </c>
       <c r="CT21" s="1"/>
@@ -12212,62 +12163,59 @@
       <c r="CV21" s="1"/>
       <c r="CW21" s="1"/>
       <c r="CX21" s="1"/>
-      <c r="CY21" s="3"/>
-      <c r="CZ21" s="3"/>
+      <c r="CY21" s="2"/>
+      <c r="CZ21" s="2"/>
       <c r="DA21" s="1"/>
       <c r="DB21" s="1"/>
       <c r="DC21" s="1"/>
-      <c r="DD21" s="3"/>
-      <c r="DE21" s="3"/>
+      <c r="DD21" s="2"/>
+      <c r="DE21" s="2"/>
       <c r="DF21" s="1"/>
       <c r="DG21" s="1"/>
-      <c r="DH21" s="3"/>
-      <c r="DI21" s="2"/>
+      <c r="DH21" s="2"/>
+      <c r="DI21" s="1"/>
       <c r="DJ21" s="1"/>
       <c r="DK21" s="1"/>
     </row>
-    <row r="22" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="21">
         <v>2005</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H22">
         <v>2016</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="T22" s="32" t="s">
+      <c r="T22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AY22" s="5" t="s">
+      <c r="AY22" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BV22" s="1"/>
-      <c r="BW22" s="3"/>
+      <c r="BW22" s="2"/>
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
       <c r="BZ22" s="1"/>
       <c r="CA22" s="1"/>
-      <c r="CB22" s="5" t="s">
+      <c r="CB22" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="CC22" s="32"/>
+      <c r="CC22" s="6"/>
       <c r="CD22" s="1"/>
       <c r="CE22" s="1"/>
       <c r="CF22" s="1"/>
@@ -12276,58 +12224,58 @@
       <c r="CV22" s="1"/>
       <c r="CW22" s="1"/>
       <c r="CX22" s="1"/>
-      <c r="CY22" s="3"/>
-      <c r="CZ22" s="3"/>
-      <c r="DB22" s="5" t="s">
+      <c r="CY22" s="2"/>
+      <c r="CZ22" s="2"/>
+      <c r="DB22" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="DD22" s="13"/>
-      <c r="DE22" s="13"/>
+      <c r="DD22" s="2"/>
+      <c r="DE22" s="2"/>
       <c r="DF22" s="1"/>
       <c r="DG22" s="1"/>
-      <c r="DH22" s="3"/>
+      <c r="DH22" s="2"/>
       <c r="DI22" s="1"/>
       <c r="DJ22" s="1"/>
       <c r="DK22" s="1"/>
     </row>
-    <row r="23" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="21">
         <v>2006</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="22">
         <v>38812</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H23">
         <v>2017</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="U23" s="32" t="s">
+      <c r="U23" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="AZ23" s="5" t="s">
+      <c r="AZ23" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="BH23" s="5" t="s">
+      <c r="BH23" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BV23" s="4" t="s">
+      <c r="BV23" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="BW23" s="5" t="s">
+      <c r="BW23" s="4" t="s">
         <v>232</v>
       </c>
       <c r="CT23" s="1"/>
@@ -12335,1297 +12283,1297 @@
       <c r="CV23" s="1"/>
       <c r="CW23" s="1"/>
       <c r="CX23" s="1"/>
-      <c r="CY23" s="3"/>
-      <c r="CZ23" s="32" t="s">
+      <c r="CY23" s="2"/>
+      <c r="CZ23" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="DA23" s="12"/>
-      <c r="DB23" s="12"/>
-      <c r="DC23" s="4" t="s">
+      <c r="DA23" s="1"/>
+      <c r="DB23" s="1"/>
+      <c r="DC23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="DD23" s="13"/>
-      <c r="DE23" s="13"/>
+      <c r="DD23" s="2"/>
+      <c r="DE23" s="2"/>
       <c r="DF23" s="1"/>
       <c r="DG23" s="1"/>
-      <c r="DH23" s="3"/>
+      <c r="DH23" s="2"/>
       <c r="DI23" s="1"/>
       <c r="DJ23" s="1"/>
       <c r="DK23" s="1"/>
     </row>
-    <row r="24" spans="1:115" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:115" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="21">
         <v>2006</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="22">
         <v>38819</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H24">
         <v>2018</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="7" t="s">
+      <c r="U24" s="8"/>
+      <c r="V24" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="7" t="s">
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AP24" s="5" t="s">
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AP24" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="AR24" s="56" t="s">
+      <c r="AR24" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="BA24" s="5" t="s">
+      <c r="BA24" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="BI24" s="5" t="s">
+      <c r="BI24" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="BX24" s="7" t="s">
+      <c r="BX24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="BZ24" s="15"/>
-      <c r="CA24" s="15"/>
-      <c r="CB24" s="15"/>
-      <c r="CC24" s="15" t="s">
+      <c r="BZ24" s="10"/>
+      <c r="CA24" s="10"/>
+      <c r="CB24" s="10"/>
+      <c r="CC24" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="CD24" s="15"/>
-      <c r="CE24" s="15"/>
-      <c r="CF24" s="64" t="s">
+      <c r="CD24" s="10"/>
+      <c r="CE24" s="10"/>
+      <c r="CF24" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="CG24" s="58" t="s">
+      <c r="CG24" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="CH24" s="15"/>
-      <c r="CI24" s="15"/>
+      <c r="CH24" s="10"/>
+      <c r="CI24" s="10"/>
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
       <c r="CV24" s="1"/>
       <c r="CW24" s="1"/>
       <c r="CX24" s="1"/>
-      <c r="CY24" s="3"/>
-      <c r="CZ24" s="3"/>
+      <c r="CY24" s="2"/>
+      <c r="CZ24" s="2"/>
       <c r="DA24" s="1"/>
       <c r="DB24" s="1"/>
       <c r="DC24" s="1"/>
-      <c r="DD24" s="62" t="s">
+      <c r="DD24" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="DE24" s="61" t="s">
+      <c r="DE24" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="DF24" s="12"/>
-      <c r="DG24" s="32" t="s">
+      <c r="DF24" s="1"/>
+      <c r="DG24" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="DH24" s="13"/>
-      <c r="DI24" s="12"/>
-      <c r="DJ24" s="32" t="s">
+      <c r="DH24" s="2"/>
+      <c r="DI24" s="1"/>
+      <c r="DJ24" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="DK24" s="12"/>
+      <c r="DK24" s="1"/>
     </row>
-    <row r="25" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="21">
         <v>2006</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="22">
         <v>38835</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H25">
         <v>2019</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="Q25" s="55" t="s">
+      <c r="Q25" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="53" t="s">
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="53" t="s">
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AQ25" s="5" t="s">
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AQ25" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="BB25" s="7" t="s">
+      <c r="BB25" s="6" t="s">
         <v>287</v>
       </c>
       <c r="BJ25" t="s">
         <v>284</v>
       </c>
-      <c r="BZ25" s="15"/>
-      <c r="CA25" s="15"/>
-      <c r="CB25" s="15"/>
-      <c r="CC25" s="15"/>
-      <c r="CD25" s="15" t="s">
+      <c r="BZ25" s="10"/>
+      <c r="CA25" s="10"/>
+      <c r="CB25" s="10"/>
+      <c r="CC25" s="10"/>
+      <c r="CD25" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="CE25" s="15"/>
-      <c r="CF25" s="22"/>
-      <c r="CG25" s="21"/>
-      <c r="CH25" s="52" t="s">
+      <c r="CE25" s="10"/>
+      <c r="CF25" s="12"/>
+      <c r="CG25" s="10"/>
+      <c r="CH25" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="CI25" s="15"/>
-      <c r="CT25" s="12"/>
-      <c r="CU25" s="12"/>
-      <c r="CV25" s="12"/>
-      <c r="CW25" s="12"/>
-      <c r="CX25" s="12"/>
-      <c r="CY25" s="13"/>
-      <c r="CZ25" s="15" t="s">
+      <c r="CI25" s="10"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
+      <c r="CW25" s="1"/>
+      <c r="CX25" s="1"/>
+      <c r="CY25" s="2"/>
+      <c r="CZ25" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="DA25" s="15"/>
-      <c r="DB25" s="12"/>
-      <c r="DC25" s="12"/>
-      <c r="DD25" s="12"/>
-      <c r="DE25" s="12"/>
-      <c r="DF25" s="12"/>
-      <c r="DG25" s="12" t="s">
+      <c r="DA25" s="10"/>
+      <c r="DB25" s="1"/>
+      <c r="DC25" s="1"/>
+      <c r="DD25" s="1"/>
+      <c r="DE25" s="1"/>
+      <c r="DF25" s="1"/>
+      <c r="DG25" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="DH25" s="54" t="s">
+      <c r="DH25" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="DI25" s="12"/>
-      <c r="DJ25" s="12"/>
-      <c r="DK25" s="12"/>
+      <c r="DI25" s="1"/>
+      <c r="DJ25" s="1"/>
+      <c r="DK25" s="1"/>
     </row>
-    <row r="26" spans="1:115" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:115" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="21">
         <v>2006</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="22">
         <v>38888</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H26">
         <v>2020</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="53" t="s">
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="57" t="s">
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AR26" s="55" t="s">
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AR26" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="AS26" s="66" t="s">
+      <c r="AS26" s="48" t="s">
         <v>313</v>
       </c>
       <c r="BK26" t="s">
         <v>297</v>
       </c>
-      <c r="BX26" s="24" t="s">
+      <c r="BX26" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="BZ26" s="19" t="s">
+      <c r="BZ26" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="CA26" s="19"/>
-      <c r="CB26" s="19"/>
-      <c r="CC26" s="19"/>
-      <c r="CD26" s="19"/>
-      <c r="CE26" s="19"/>
-      <c r="CF26" s="63"/>
-      <c r="CG26" s="19"/>
-      <c r="CH26" s="19"/>
-      <c r="CI26" s="19" t="s">
+      <c r="CA26" s="10"/>
+      <c r="CB26" s="10"/>
+      <c r="CC26" s="10"/>
+      <c r="CD26" s="10"/>
+      <c r="CE26" s="10"/>
+      <c r="CF26" s="45"/>
+      <c r="CG26" s="10"/>
+      <c r="CH26" s="10"/>
+      <c r="CI26" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="CT26" s="12"/>
-      <c r="CU26" s="12"/>
-      <c r="CV26" s="12"/>
-      <c r="CW26" s="12"/>
-      <c r="CX26" s="12"/>
-      <c r="CY26" s="13"/>
-      <c r="CZ26" s="13"/>
-      <c r="DA26" s="15" t="s">
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="2"/>
+      <c r="CZ26" s="2"/>
+      <c r="DA26" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="DB26" s="12"/>
-      <c r="DC26" s="12"/>
-      <c r="DD26" s="12"/>
-      <c r="DE26" s="15" t="s">
+      <c r="DB26" s="1"/>
+      <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
+      <c r="DE26" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="DF26" s="12"/>
-      <c r="DG26" s="12"/>
+      <c r="DF26" s="1"/>
+      <c r="DG26" s="1"/>
     </row>
-    <row r="27" spans="1:115" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:115" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="21">
         <v>2006</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="22">
         <v>38895</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H27">
         <v>2021</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="N27" s="72" t="s">
+      <c r="N27" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="71"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="74" t="s">
+      <c r="O27"/>
+      <c r="P27" s="53"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="56" t="s">
         <v>350</v>
       </c>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="77" t="s">
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="78" t="s">
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="AG27" s="9"/>
-      <c r="AT27" s="74" t="s">
+      <c r="AG27" s="8"/>
+      <c r="AT27" s="56" t="s">
         <v>351</v>
       </c>
-      <c r="BC27" s="75" t="s">
+      <c r="BC27" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="BL27" s="74" t="s">
+      <c r="BL27" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="BZ27" s="19"/>
-      <c r="CA27" s="73" t="s">
+      <c r="BZ27" s="10"/>
+      <c r="CA27" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="CB27" s="19"/>
-      <c r="CC27" s="19"/>
-      <c r="CD27" s="19"/>
-      <c r="CE27" s="19"/>
-      <c r="CF27" s="23"/>
-      <c r="CG27" s="19"/>
-      <c r="CH27" s="19"/>
-      <c r="CI27" s="19"/>
-      <c r="CJ27" s="77" t="s">
+      <c r="CB27" s="10"/>
+      <c r="CC27" s="10"/>
+      <c r="CD27" s="10"/>
+      <c r="CE27" s="10"/>
+      <c r="CF27" s="12"/>
+      <c r="CG27" s="10"/>
+      <c r="CH27" s="10"/>
+      <c r="CI27" s="10"/>
+      <c r="CJ27" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="DB27" s="25" t="s">
+      <c r="DB27" t="s">
         <v>349</v>
       </c>
-      <c r="DF27" s="25" t="s">
+      <c r="DF27" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="21">
         <v>2007</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="22">
         <v>39185</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="BZ28" s="19"/>
-      <c r="CA28" s="19"/>
-      <c r="CB28" s="19"/>
-      <c r="CC28" s="19"/>
-      <c r="CD28" s="19"/>
-      <c r="CE28" s="19"/>
-      <c r="CF28" s="23"/>
-      <c r="CG28" s="19"/>
-      <c r="CH28" s="19"/>
-      <c r="CI28" s="19"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="BZ28" s="10"/>
+      <c r="CA28" s="10"/>
+      <c r="CB28" s="10"/>
+      <c r="CC28" s="10"/>
+      <c r="CD28" s="10"/>
+      <c r="CE28" s="10"/>
+      <c r="CF28" s="12"/>
+      <c r="CG28" s="10"/>
+      <c r="CH28" s="10"/>
+      <c r="CI28" s="10"/>
     </row>
-    <row r="29" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="21">
         <v>2007</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="22">
         <v>39186</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="5"/>
       <c r="I29" t="s">
         <v>156</v>
       </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
     </row>
-    <row r="30" spans="1:115" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="21">
         <v>2007</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="22">
         <v>39189</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="26" t="s">
+      <c r="H30" s="17"/>
+      <c r="I30" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
     </row>
-    <row r="31" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="21">
         <v>2007</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="22">
         <v>39196</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="21">
         <v>2007</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="22">
         <v>39196</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="21">
         <v>2007</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="22">
         <v>39281</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="65" t="s">
+      <c r="H33" s="41"/>
+      <c r="I33" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="21">
         <v>2007</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="22">
         <v>39282</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="21">
         <v>2008</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="22">
         <v>39519</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="21">
         <v>2008</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="22">
         <v>39562</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="21">
         <v>2008</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="22">
         <v>39565</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="21">
         <v>2008</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="22">
         <v>39566</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="21">
         <v>2008</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="22">
         <v>39568</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="21">
         <v>2008</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="22">
         <v>39661</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="21">
         <v>2008</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="22">
         <v>39664</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="21">
         <v>2009</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="22">
         <v>39925</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="21">
         <v>2009</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="22">
         <v>39928</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="21">
         <v>2009</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="22">
         <v>39932</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="21">
         <v>2009</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="22">
         <v>39959</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="21">
         <v>2009</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="22">
         <v>40043</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="21">
         <v>2009</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="22">
         <v>40054</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="21">
         <v>2010</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="22">
         <v>40200</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="21">
         <v>2010</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="22">
         <v>40249</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="21">
         <v>2010</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="22">
         <v>40296</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="21">
         <v>2010</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="22">
         <v>40303</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="21">
         <v>2010</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="22">
         <v>40328</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="21">
         <v>2010</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="22">
         <v>40345</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="21">
         <v>2010</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="22">
         <v>40370</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="21">
         <v>2011</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="22">
         <v>40595</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="21">
         <v>2011</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="22">
         <v>40628</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="21">
         <v>2011</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="22">
         <v>40643</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="21">
         <v>2011</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="22">
         <v>40673</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="36"/>
+      <c r="F58" s="21"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="21">
         <v>2011</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="22">
         <v>40696</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="36">
+      <c r="B60" s="21">
         <v>2011</v>
       </c>
-      <c r="C60" s="37">
+      <c r="C60" s="22">
         <v>40716</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="21">
         <v>2011</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="22">
         <v>40723</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="21">
         <v>2011</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="22">
         <v>40725</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="21">
         <v>2012</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="22">
         <v>40980</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D63" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="36">
+      <c r="B64" s="21">
         <v>2012</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="22">
         <v>40983</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="21">
         <v>2012</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="22">
         <v>41009</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="36">
+      <c r="B66" s="21">
         <v>2012</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C66" s="22">
         <v>41085</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="21">
         <v>2012</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="22">
         <v>41096</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D67" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I67" s="3"/>
+      <c r="I67" s="2"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -13636,26 +13584,26 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="21">
         <v>2012</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="22">
         <v>41110</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D68" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -13666,26 +13614,26 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="21">
         <v>2013</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="22">
         <v>41349</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I69" s="3"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -13696,26 +13644,26 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="21">
         <v>2013</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="22">
         <v>41356</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F70" s="36" t="s">
+      <c r="F70" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="3"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -13726,26 +13674,26 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="36">
+      <c r="B71" s="21">
         <v>2013</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="22">
         <v>41382</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F71" s="36" t="s">
+      <c r="F71" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -13756,26 +13704,26 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="21">
         <v>2013</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="22">
         <v>41391</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="36" t="s">
+      <c r="F72" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="3"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -13786,26 +13734,26 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="36">
+      <c r="B73" s="21">
         <v>2013</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="22">
         <v>41405</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F73" s="36" t="s">
+      <c r="F73" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I73" s="3"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -13816,26 +13764,26 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="36">
+      <c r="B74" s="21">
         <v>2013</v>
       </c>
-      <c r="C74" s="37">
+      <c r="C74" s="22">
         <v>41405</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I74" s="3"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -13846,26 +13794,26 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="21">
         <v>2013</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="22">
         <v>41441</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F75" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I75" s="3"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -13876,1516 +13824,1516 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="36">
+      <c r="B76" s="21">
         <v>2013</v>
       </c>
-      <c r="C76" s="37">
+      <c r="C76" s="22">
         <v>41468</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="F76" s="36" t="s">
+      <c r="F76" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="36">
+      <c r="B77" s="21">
         <v>2013</v>
       </c>
-      <c r="C77" s="37">
+      <c r="C77" s="22">
         <v>41485</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F77" s="36" t="s">
+      <c r="F77" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="36">
+      <c r="B78" s="21">
         <v>2013</v>
       </c>
-      <c r="C78" s="37">
+      <c r="C78" s="22">
         <v>41500</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="36" t="s">
+      <c r="E78" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F78" s="36" t="s">
+      <c r="F78" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G78" s="40" t="s">
+      <c r="G78" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="36">
+      <c r="B79" s="21">
         <v>2014</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="22">
         <v>41718</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="40" t="s">
+      <c r="G79" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="21">
         <v>2014</v>
       </c>
-      <c r="C80" s="37">
+      <c r="C80" s="22">
         <v>41722</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="36" t="s">
+      <c r="E80" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F80" s="36" t="s">
+      <c r="F80" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="36">
+      <c r="B81" s="21">
         <v>2014</v>
       </c>
-      <c r="C81" s="37">
+      <c r="C81" s="22">
         <v>41762</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E81" s="36" t="s">
+      <c r="E81" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="21">
         <v>2014</v>
       </c>
-      <c r="C82" s="37">
+      <c r="C82" s="22">
         <v>41763</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="36" t="s">
+      <c r="E82" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="36" t="s">
+      <c r="F82" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="36">
+      <c r="B83" s="21">
         <v>2014</v>
       </c>
-      <c r="C83" s="37">
+      <c r="C83" s="22">
         <v>41865</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D83" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="36" t="s">
+      <c r="E83" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F83" s="36" t="s">
+      <c r="F83" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="36">
+      <c r="B84" s="21">
         <v>2014</v>
       </c>
-      <c r="C84" s="37">
+      <c r="C84" s="22">
         <v>41865</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F84" s="36"/>
+      <c r="F84" s="21"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="36">
+      <c r="B85" s="21">
         <v>2015</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="24">
         <v>42075</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G85" s="40" t="s">
+      <c r="G85" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="36">
+      <c r="B86" s="21">
         <v>2015</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C86" s="24">
         <v>42106</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E86" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="F86" s="40" t="s">
+      <c r="F86" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="21">
         <v>2015</v>
       </c>
-      <c r="C87" s="39">
+      <c r="C87" s="24">
         <v>42123</v>
       </c>
-      <c r="D87" s="36" t="s">
+      <c r="D87" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F87" s="40" t="s">
+      <c r="F87" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="36">
+      <c r="B88" s="21">
         <v>2015</v>
       </c>
-      <c r="C88" s="39">
+      <c r="C88" s="24">
         <v>42140</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="40" t="s">
+      <c r="E88" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F88" s="40"/>
+      <c r="F88" s="25"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="36">
+      <c r="B89" s="21">
         <v>2015</v>
       </c>
-      <c r="C89" s="39">
+      <c r="C89" s="24">
         <v>42230</v>
       </c>
-      <c r="D89" s="36" t="s">
+      <c r="D89" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="40" t="s">
+      <c r="F89" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="36">
+      <c r="B90" s="21">
         <v>2016</v>
       </c>
-      <c r="C90" s="39">
+      <c r="C90" s="24">
         <v>42459</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="F90" s="40" t="s">
+      <c r="F90" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="21">
         <v>2016</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="24">
         <v>42474</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D91" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F91" s="40" t="s">
+      <c r="F91" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="36">
+      <c r="B92" s="21">
         <v>2016</v>
       </c>
-      <c r="C92" s="39">
+      <c r="C92" s="24">
         <v>42475</v>
       </c>
-      <c r="D92" s="36" t="s">
+      <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="E92" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F92" s="40" t="s">
+      <c r="F92" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="36">
+      <c r="B93" s="21">
         <v>2016</v>
       </c>
-      <c r="C93" s="39">
+      <c r="C93" s="24">
         <v>42488</v>
       </c>
-      <c r="D93" s="36" t="s">
+      <c r="D93" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F93" s="40" t="s">
+      <c r="F93" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="36">
+      <c r="B94" s="21">
         <v>2016</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="24">
         <v>42631</v>
       </c>
-      <c r="D94" s="36" t="s">
+      <c r="D94" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="40" t="s">
+      <c r="E94" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F94" s="40" t="s">
+      <c r="F94" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G94" s="40" t="s">
+      <c r="G94" s="25" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="36">
+      <c r="B95" s="21">
         <v>2017</v>
       </c>
-      <c r="C95" s="39">
+      <c r="C95" s="24">
         <v>42818</v>
       </c>
-      <c r="D95" s="36" t="s">
+      <c r="D95" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E95" s="40" t="s">
+      <c r="E95" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F95" s="40" t="s">
+      <c r="F95" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="36">
+      <c r="B96" s="21">
         <v>2017</v>
       </c>
-      <c r="C96" s="39">
+      <c r="C96" s="24">
         <v>42838</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="40" t="s">
+      <c r="E96" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F96" s="40" t="s">
+      <c r="F96" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="36">
+      <c r="B97" s="21">
         <v>2017</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="24">
         <v>42839</v>
       </c>
-      <c r="D97" s="36" t="s">
+      <c r="D97" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E97" s="40" t="s">
+      <c r="E97" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="F97" s="40" t="s">
+      <c r="F97" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G97" s="40" t="s">
+      <c r="G97" s="25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="36">
+      <c r="B98" s="21">
         <v>2017</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="24">
         <v>42853</v>
       </c>
-      <c r="D98" s="36" t="s">
+      <c r="D98" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E98" s="36" t="s">
+      <c r="E98" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F98" s="40"/>
+      <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="36">
+      <c r="B99" s="21">
         <v>2017</v>
       </c>
-      <c r="C99" s="39">
+      <c r="C99" s="24">
         <v>42859</v>
       </c>
-      <c r="D99" s="36" t="s">
+      <c r="D99" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F99" s="40" t="s">
+      <c r="F99" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="36">
+      <c r="B100" s="21">
         <v>2017</v>
       </c>
-      <c r="C100" s="39">
+      <c r="C100" s="24">
         <v>42864</v>
       </c>
-      <c r="D100" s="36" t="s">
+      <c r="D100" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="40" t="s">
+      <c r="E100" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="F100" s="40" t="s">
+      <c r="F100" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="36">
+      <c r="B101" s="21">
         <v>2017</v>
       </c>
-      <c r="C101" s="39">
+      <c r="C101" s="24">
         <v>42865</v>
       </c>
-      <c r="D101" s="38" t="s">
+      <c r="D101" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="F101" s="43"/>
+      <c r="F101" s="28"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="36">
+      <c r="B102" s="21">
         <v>2017</v>
       </c>
-      <c r="C102" s="39">
+      <c r="C102" s="24">
         <v>42871</v>
       </c>
-      <c r="D102" s="36" t="s">
+      <c r="D102" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E102" s="40" t="s">
+      <c r="E102" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F102" s="40" t="s">
+      <c r="F102" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G102" s="40" t="s">
+      <c r="G102" s="25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="36">
+      <c r="B103" s="21">
         <v>2018</v>
       </c>
-      <c r="C103" s="39">
+      <c r="C103" s="24">
         <v>43186</v>
       </c>
-      <c r="D103" s="36" t="s">
+      <c r="D103" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E103" s="40" t="s">
+      <c r="E103" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="F103" s="40" t="s">
+      <c r="F103" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G103" s="59" t="s">
+      <c r="G103" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="36">
+      <c r="B104" s="21">
         <v>2018</v>
       </c>
-      <c r="C104" s="39">
+      <c r="C104" s="24">
         <v>43202</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E104" s="40" t="s">
+      <c r="E104" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F104" s="40" t="s">
+      <c r="F104" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="36">
+      <c r="B105" s="21">
         <v>2018</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C105" s="24">
         <v>43204</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="D105" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F105" s="40" t="s">
+      <c r="F105" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="36">
+      <c r="B106" s="21">
         <v>2018</v>
       </c>
-      <c r="C106" s="39">
+      <c r="C106" s="24">
         <v>43211</v>
       </c>
-      <c r="D106" s="36" t="s">
+      <c r="D106" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="40" t="s">
+      <c r="E106" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="F106" s="40" t="s">
+      <c r="F106" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="36">
+      <c r="B107" s="21">
         <v>2018</v>
       </c>
-      <c r="C107" s="39">
+      <c r="C107" s="24">
         <v>43221</v>
       </c>
-      <c r="D107" s="36" t="s">
+      <c r="D107" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E107" s="40" t="s">
+      <c r="E107" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="F107" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G107" s="60" t="s">
+      <c r="G107" s="43" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="36">
+      <c r="B108" s="21">
         <v>2018</v>
       </c>
-      <c r="C108" s="39">
+      <c r="C108" s="24">
         <v>76097</v>
       </c>
-      <c r="D108" s="36" t="s">
+      <c r="D108" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E108" s="40" t="s">
+      <c r="E108" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="F108" s="40" t="s">
+      <c r="F108" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="36">
+      <c r="B109" s="21">
         <v>2018</v>
       </c>
-      <c r="C109" s="39">
+      <c r="C109" s="24">
         <v>76101</v>
       </c>
-      <c r="D109" s="36" t="s">
+      <c r="D109" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E109" s="40" t="s">
+      <c r="E109" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F109" s="40" t="s">
+      <c r="F109" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="36">
+      <c r="B110" s="21">
         <v>2018</v>
       </c>
-      <c r="C110" s="39">
+      <c r="C110" s="24">
         <v>43236</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D110" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="F110" s="40" t="s">
+      <c r="F110" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="36">
+      <c r="B111" s="21">
         <v>2018</v>
       </c>
-      <c r="C111" s="39">
+      <c r="C111" s="24">
         <v>43250</v>
       </c>
-      <c r="D111" s="36" t="s">
+      <c r="D111" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E111" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="F111" s="40" t="s">
+      <c r="F111" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="36">
+      <c r="B112" s="21">
         <v>2018</v>
       </c>
-      <c r="C112" s="39">
+      <c r="C112" s="24">
         <v>43252</v>
       </c>
-      <c r="D112" s="36" t="s">
+      <c r="D112" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E112" s="40" t="s">
+      <c r="E112" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="F112" s="40" t="s">
+      <c r="F112" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="36">
+      <c r="B113" s="21">
         <v>2018</v>
       </c>
-      <c r="C113" s="39">
+      <c r="C113" s="24">
         <v>43252</v>
       </c>
-      <c r="D113" s="36" t="s">
+      <c r="D113" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E113" s="40" t="s">
+      <c r="E113" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F113" s="40" t="s">
+      <c r="F113" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="36">
+      <c r="B114" s="21">
         <v>2018</v>
       </c>
-      <c r="C114" s="39">
+      <c r="C114" s="24">
         <v>43321</v>
       </c>
-      <c r="D114" s="36" t="s">
+      <c r="D114" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="40" t="s">
+      <c r="E114" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="F114" s="40" t="s">
+      <c r="F114" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="36">
+      <c r="B115" s="21">
         <v>2019</v>
       </c>
-      <c r="C115" s="46">
+      <c r="C115" s="29">
         <v>43569</v>
       </c>
-      <c r="D115" s="36" t="s">
+      <c r="D115" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E115" s="40" t="s">
+      <c r="E115" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F115" s="40" t="s">
+      <c r="F115" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="36">
+      <c r="B116" s="21">
         <v>2019</v>
       </c>
-      <c r="C116" s="46">
+      <c r="C116" s="29">
         <v>43578</v>
       </c>
-      <c r="D116" s="36" t="s">
+      <c r="D116" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E116" s="40" t="s">
+      <c r="E116" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="F116" s="40" t="s">
+      <c r="F116" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="36">
+      <c r="B117" s="21">
         <v>2019</v>
       </c>
-      <c r="C117" s="46">
+      <c r="C117" s="29">
         <v>43585</v>
       </c>
-      <c r="D117" s="36" t="s">
+      <c r="D117" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E117" s="40" t="s">
+      <c r="E117" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="F117" s="40" t="s">
+      <c r="F117" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="36">
+      <c r="B118" s="21">
         <v>2019</v>
       </c>
-      <c r="C118" s="46">
+      <c r="C118" s="29">
         <v>43591</v>
       </c>
-      <c r="D118" s="36" t="s">
+      <c r="D118" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E118" s="40" t="s">
+      <c r="E118" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="F118" s="40" t="s">
+      <c r="F118" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="36">
+      <c r="B119" s="21">
         <v>2019</v>
       </c>
-      <c r="C119" s="46">
+      <c r="C119" s="29">
         <v>43599</v>
       </c>
-      <c r="D119" s="36" t="s">
+      <c r="D119" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E119" s="40" t="s">
+      <c r="E119" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="F119" s="40" t="s">
+      <c r="F119" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="36">
+      <c r="B120" s="21">
         <v>2019</v>
       </c>
-      <c r="C120" s="46">
+      <c r="C120" s="29">
         <v>43599</v>
       </c>
-      <c r="D120" s="36" t="s">
+      <c r="D120" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E120" s="40" t="s">
+      <c r="E120" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="F120" s="40" t="s">
+      <c r="F120" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G120" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="36">
+      <c r="B121" s="21">
         <v>2019</v>
       </c>
-      <c r="C121" s="46">
+      <c r="C121" s="29">
         <v>43613</v>
       </c>
-      <c r="D121" s="36" t="s">
+      <c r="D121" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E121" s="40" t="s">
+      <c r="E121" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F121" s="40" t="s">
+      <c r="F121" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="36">
+      <c r="B122" s="21">
         <v>2019</v>
       </c>
-      <c r="C122" s="46">
+      <c r="C122" s="29">
         <v>43614</v>
       </c>
-      <c r="D122" s="36" t="s">
+      <c r="D122" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E122" s="40" t="s">
+      <c r="E122" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="F122" s="40" t="s">
+      <c r="F122" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G122" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="36">
+      <c r="B123" s="21">
         <v>2019</v>
       </c>
-      <c r="C123" s="46">
+      <c r="C123" s="29">
         <v>43625</v>
       </c>
-      <c r="D123" s="36" t="s">
+      <c r="D123" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E123" s="40" t="s">
+      <c r="E123" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="F123" s="40" t="s">
+      <c r="F123" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G123" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="36">
+      <c r="B124" s="21">
         <v>2019</v>
       </c>
-      <c r="C124" s="46">
+      <c r="C124" s="29">
         <v>43636</v>
       </c>
-      <c r="D124" s="36" t="s">
+      <c r="D124" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="F124" s="40" t="s">
+      <c r="F124" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="36">
+      <c r="B125" s="21">
         <v>2019</v>
       </c>
-      <c r="C125" s="46">
+      <c r="C125" s="29">
         <v>43724</v>
       </c>
-      <c r="D125" s="36" t="s">
+      <c r="D125" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="F125" s="40" t="s">
+      <c r="F125" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="36">
+      <c r="B126" s="21">
         <v>2020</v>
       </c>
-      <c r="C126" s="46">
+      <c r="C126" s="29">
         <v>43935</v>
       </c>
-      <c r="D126" s="36" t="s">
+      <c r="D126" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E126" s="47" t="s">
+      <c r="E126" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="F126" s="40" t="s">
+      <c r="F126" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G126" s="50"/>
-      <c r="H126" s="51" t="s">
+      <c r="G126" s="33"/>
+      <c r="H126" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="36">
+      <c r="B127" s="21">
         <v>2020</v>
       </c>
-      <c r="C127" s="46">
+      <c r="C127" s="29">
         <v>43938</v>
       </c>
-      <c r="D127" s="36" t="s">
+      <c r="D127" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E127" s="48" t="s">
+      <c r="E127" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="F127" s="40" t="s">
+      <c r="F127" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="36">
+      <c r="B128" s="21">
         <v>2020</v>
       </c>
-      <c r="C128" s="46">
+      <c r="C128" s="29">
         <v>43951</v>
       </c>
-      <c r="D128" s="36" t="s">
+      <c r="D128" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E128" s="48" t="s">
+      <c r="E128" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="F128" s="45" t="s">
+      <c r="F128" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="36">
+      <c r="B129" s="21">
         <v>2020</v>
       </c>
-      <c r="C129" s="46">
+      <c r="C129" s="29">
         <v>43957</v>
       </c>
-      <c r="D129" s="36" t="s">
+      <c r="D129" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E129" s="48" t="s">
+      <c r="E129" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="F129" s="45" t="s">
+      <c r="F129" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="36">
+      <c r="B130" s="21">
         <v>2020</v>
       </c>
-      <c r="C130" s="46">
+      <c r="C130" s="29">
         <v>43958</v>
       </c>
-      <c r="D130" s="36" t="s">
+      <c r="D130" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E130" s="48" t="s">
+      <c r="E130" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="F130" s="45" t="s">
+      <c r="F130" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="36">
+      <c r="B131" s="21">
         <v>2020</v>
       </c>
-      <c r="C131" s="46">
+      <c r="C131" s="29">
         <v>43963</v>
       </c>
-      <c r="D131" s="40" t="s">
+      <c r="D131" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="E131" s="48" t="s">
+      <c r="E131" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="F131" s="45" t="s">
+      <c r="F131" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G131" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="36">
+      <c r="B132" s="21">
         <v>2020</v>
       </c>
-      <c r="C132" s="46">
+      <c r="C132" s="29">
         <v>43965</v>
       </c>
-      <c r="D132" s="36" t="s">
+      <c r="D132" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E132" s="49" t="s">
+      <c r="E132" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="F132" s="45" t="s">
+      <c r="F132" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="36">
+      <c r="B133" s="21">
         <v>2020</v>
       </c>
-      <c r="C133" s="46">
+      <c r="C133" s="29">
         <v>43983</v>
       </c>
-      <c r="D133" s="36" t="s">
+      <c r="D133" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E133" s="48" t="s">
+      <c r="E133" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="F133" s="45" t="s">
+      <c r="F133" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="36">
+      <c r="B134" s="21">
         <v>2020</v>
       </c>
-      <c r="C134" s="46">
+      <c r="C134" s="29">
         <v>43985</v>
       </c>
-      <c r="D134" s="36" t="s">
+      <c r="D134" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E134" s="48" t="s">
+      <c r="E134" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="F134" s="45" t="s">
+      <c r="F134" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="36">
+      <c r="B135" s="21">
         <v>2020</v>
       </c>
-      <c r="C135" s="46">
+      <c r="C135" s="29">
         <v>43988</v>
       </c>
-      <c r="D135" s="36" t="s">
+      <c r="D135" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E135" s="48" t="s">
+      <c r="E135" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="F135" s="45" t="s">
+      <c r="F135" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="36">
+      <c r="B136" s="21">
         <v>2020</v>
       </c>
-      <c r="C136" s="46">
+      <c r="C136" s="29">
         <v>43999</v>
       </c>
-      <c r="D136" s="36" t="s">
+      <c r="D136" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E136" s="48" t="s">
+      <c r="E136" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F136" s="45" t="s">
+      <c r="F136" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G136" s="60" t="s">
+      <c r="G136" s="43" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="36">
+      <c r="B137" s="21">
         <v>2021</v>
       </c>
-      <c r="C137" s="67">
+      <c r="C137" s="49">
         <v>44292</v>
       </c>
-      <c r="D137" s="69" t="s">
+      <c r="D137" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="E137" s="68" t="s">
+      <c r="E137" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="F137" s="69" t="s">
+      <c r="F137" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="36">
+      <c r="B138" s="21">
         <v>2021</v>
       </c>
-      <c r="C138" s="67">
+      <c r="C138" s="49">
         <v>44319</v>
       </c>
-      <c r="D138" s="69" t="s">
+      <c r="D138" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="E138" s="69" t="s">
+      <c r="E138" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="F138" s="69" t="s">
+      <c r="F138" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="36">
+      <c r="B139" s="21">
         <v>2021</v>
       </c>
-      <c r="C139" s="67">
+      <c r="C139" s="49">
         <v>44324</v>
       </c>
-      <c r="D139" s="69" t="s">
+      <c r="D139" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="E139" s="69" t="s">
+      <c r="E139" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="F139" s="69" t="s">
+      <c r="F139" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="36">
+      <c r="B140" s="21">
         <v>2021</v>
       </c>
-      <c r="C140" s="67">
+      <c r="C140" s="49">
         <v>44326</v>
       </c>
-      <c r="D140" s="69" t="s">
+      <c r="D140" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="E140" s="60" t="s">
+      <c r="E140" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="F140" s="69" t="s">
+      <c r="F140" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="70" t="s">
+      <c r="G140" s="52" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="36">
+      <c r="B141" s="21">
         <v>2021</v>
       </c>
-      <c r="C141" s="67">
+      <c r="C141" s="49">
         <v>44333</v>
       </c>
-      <c r="D141" s="69" t="s">
+      <c r="D141" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="E141" s="69" t="s">
+      <c r="E141" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="F141" s="69" t="s">
+      <c r="F141" s="51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="36">
+      <c r="B142" s="21">
         <v>2021</v>
       </c>
-      <c r="C142" s="67">
+      <c r="C142" s="49">
         <v>44337</v>
       </c>
-      <c r="D142" s="69" t="s">
+      <c r="D142" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="E142" s="69" t="s">
+      <c r="E142" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="F142" s="69" t="s">
+      <c r="F142" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G142" s="60" t="s">
+      <c r="G142" s="43" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="36">
+      <c r="B143" s="21">
         <v>2021</v>
       </c>
-      <c r="C143" s="67">
+      <c r="C143" s="49">
         <v>44337</v>
       </c>
-      <c r="D143" s="69" t="s">
+      <c r="D143" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="E143" s="69" t="s">
+      <c r="E143" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="F143" s="69" t="s">
+      <c r="F143" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="60" t="s">
+      <c r="G143" s="43" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="36">
+      <c r="B144" s="21">
         <v>2021</v>
       </c>
-      <c r="C144" s="67">
+      <c r="C144" s="49">
         <v>44344</v>
       </c>
-      <c r="D144" s="69" t="s">
+      <c r="D144" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="E144" s="60" t="s">
+      <c r="E144" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="F144" s="69"/>
-      <c r="G144" s="60" t="s">
+      <c r="F144" s="51"/>
+      <c r="G144" s="43" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="36">
+      <c r="B145" s="21">
         <v>2021</v>
       </c>
-      <c r="C145" s="67">
+      <c r="C145" s="49">
         <v>44345</v>
       </c>
-      <c r="D145" s="69" t="s">
+      <c r="D145" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="E145" s="69" t="s">
+      <c r="E145" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="F145" s="69" t="s">
+      <c r="F145" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="36">
+      <c r="B146" s="21">
         <v>2021</v>
       </c>
-      <c r="C146" s="67">
+      <c r="C146" s="49">
         <v>44358</v>
       </c>
-      <c r="D146" s="69" t="s">
+      <c r="D146" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="E146" s="69" t="s">
+      <c r="E146" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="F146" s="69" t="s">
+      <c r="F146" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="36">
+      <c r="B147" s="21">
         <v>2021</v>
       </c>
-      <c r="C147" s="67">
+      <c r="C147" s="49">
         <v>44361</v>
       </c>
-      <c r="D147" s="69" t="s">
+      <c r="D147" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="E147" s="69" t="s">
+      <c r="E147" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="F147" s="69" t="s">
+      <c r="F147" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="36">
+      <c r="B148" s="21">
         <v>2021</v>
       </c>
-      <c r="C148" s="67">
+      <c r="C148" s="49">
         <v>44368</v>
       </c>
-      <c r="D148" s="69" t="s">
+      <c r="D148" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="E148" s="69" t="s">
+      <c r="E148" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="F148" s="69" t="s">
+      <c r="F148" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="26"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B149" s="14"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="26"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B150" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F80">
@@ -15404,7 +15352,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15416,7 +15364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
